--- a/SOM League 25 Proficiency.xlsx
+++ b/SOM League 25 Proficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOMLeagueAuction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F012AEB4-E340-4743-8531-14A7292E86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F1B62-8C00-48B5-8780-16CAA37153FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20244321-336C-4508-BF55-04728D82386B}"/>
   </bookViews>
@@ -2911,10 +2911,10 @@
   <dimension ref="A1:AG247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6813,7 +6813,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -8237,7 +8237,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
